--- a/observations/orbit_plans/mtp032/nomad_mtp032_plan.xlsx
+++ b/observations/orbit_plans/mtp032/nomad_mtp032_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp032\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768EAE3-CCFC-4AAC-9EEA-1DDD0242412E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47208DF7-C0E1-4F26-9200-76B1ED492853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="557">
   <si>
     <t>#orbitType</t>
   </si>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:M342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4530,6 +4530,9 @@
       <c r="J105" t="s">
         <v>211</v>
       </c>
+      <c r="K105" t="s">
+        <v>10</v>
+      </c>
       <c r="L105" t="s">
         <v>212</v>
       </c>
@@ -5687,6 +5690,9 @@
       <c r="J154" t="s">
         <v>211</v>
       </c>
+      <c r="K154" t="s">
+        <v>10</v>
+      </c>
       <c r="L154" t="s">
         <v>292</v>
       </c>
@@ -6337,6 +6343,9 @@
       <c r="J185" t="s">
         <v>211</v>
       </c>
+      <c r="K185" t="s">
+        <v>10</v>
+      </c>
       <c r="L185" t="s">
         <v>346</v>
       </c>
@@ -6671,6 +6680,9 @@
       <c r="J199" t="s">
         <v>211</v>
       </c>
+      <c r="K199" t="s">
+        <v>10</v>
+      </c>
       <c r="L199" t="s">
         <v>369</v>
       </c>
@@ -7068,6 +7080,9 @@
       <c r="J216" t="s">
         <v>211</v>
       </c>
+      <c r="K216" t="s">
+        <v>10</v>
+      </c>
       <c r="L216" t="s">
         <v>391</v>
       </c>
@@ -9378,6 +9393,9 @@
       </c>
       <c r="J314" t="s">
         <v>211</v>
+      </c>
+      <c r="K314" t="s">
+        <v>10</v>
       </c>
       <c r="L314" t="s">
         <v>515</v>
